--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43062,6 +43062,43 @@
         <v>39500</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43099,6 +43099,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43136,6 +43136,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43173,6 +43173,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43210,6 +43210,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43247,6 +43247,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43284,6 +43284,41 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>81500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43319,6 +43319,41 @@
         <v>81500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>38000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43354,6 +43354,43 @@
         <v>38000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43391,6 +43391,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>51700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43426,6 +43426,41 @@
         <v>51700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>100100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43461,6 +43461,76 @@
         <v>100100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>170800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43531,6 +43531,78 @@
         <v>170800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>11800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>11800</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43708,6 +43708,41 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>294700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,76 @@
         <v>294700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>270500</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43813,6 +43813,41 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>249400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43848,6 +43848,41 @@
         <v>249400</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>650000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1654"/>
+  <dimension ref="A1:I1655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58408,6 +58408,41 @@
         <v>650000</v>
       </c>
     </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1655" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>161100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1655"/>
+  <dimension ref="A1:I1656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58443,6 +58443,41 @@
         <v>161100</v>
       </c>
     </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1656" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>90400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1656"/>
+  <dimension ref="A1:I1657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58478,6 +58478,41 @@
         <v>90400</v>
       </c>
     </row>
+    <row r="1657">
+      <c r="A1657" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1657" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>416000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1657"/>
+  <dimension ref="A1:I1658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58513,6 +58513,41 @@
         <v>416000</v>
       </c>
     </row>
+    <row r="1658">
+      <c r="A1658" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1658" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>589500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1658"/>
+  <dimension ref="A1:I1659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58548,6 +58548,41 @@
         <v>589500</v>
       </c>
     </row>
+    <row r="1659">
+      <c r="A1659" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1659" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>402000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1659"/>
+  <dimension ref="A1:I1660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58583,6 +58583,41 @@
         <v>402000</v>
       </c>
     </row>
+    <row r="1660">
+      <c r="A1660" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1660" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>187800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1660"/>
+  <dimension ref="A1:I1661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58618,6 +58618,41 @@
         <v>187800</v>
       </c>
     </row>
+    <row r="1661">
+      <c r="A1661" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1661" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>60600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1661"/>
+  <dimension ref="A1:I1662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58653,6 +58653,41 @@
         <v>60600</v>
       </c>
     </row>
+    <row r="1662">
+      <c r="A1662" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1662" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>166000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1662"/>
+  <dimension ref="A1:I1663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58688,6 +58688,41 @@
         <v>166000</v>
       </c>
     </row>
+    <row r="1663">
+      <c r="A1663" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1663" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1663"/>
+  <dimension ref="A1:I1664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58723,6 +58723,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1664">
+      <c r="A1664" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1664" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>230500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1664"/>
+  <dimension ref="A1:I1665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58758,6 +58758,41 @@
         <v>230500</v>
       </c>
     </row>
+    <row r="1665">
+      <c r="A1665" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1665" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>149900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1665"/>
+  <dimension ref="A1:I1666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58793,6 +58793,41 @@
         <v>149900</v>
       </c>
     </row>
+    <row r="1666">
+      <c r="A1666" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1666" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>138000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1666"/>
+  <dimension ref="A1:I1667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58828,6 +58828,41 @@
         <v>138000</v>
       </c>
     </row>
+    <row r="1667">
+      <c r="A1667" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1667" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1667"/>
+  <dimension ref="A1:I1668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58863,6 +58863,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1668">
+      <c r="A1668" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1668" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>93000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1668"/>
+  <dimension ref="A1:I1669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58898,6 +58898,41 @@
         <v>93000</v>
       </c>
     </row>
+    <row r="1669">
+      <c r="A1669" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1669" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>92000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1669"/>
+  <dimension ref="A1:I1670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58933,6 +58933,41 @@
         <v>92000</v>
       </c>
     </row>
+    <row r="1670">
+      <c r="A1670" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1670" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>111700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1670"/>
+  <dimension ref="A1:I1671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58968,6 +58968,41 @@
         <v>111700</v>
       </c>
     </row>
+    <row r="1671">
+      <c r="A1671" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1671" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>144800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1671"/>
+  <dimension ref="A1:I1672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59003,6 +59003,41 @@
         <v>144800</v>
       </c>
     </row>
+    <row r="1672">
+      <c r="A1672" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1672" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>117500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1672"/>
+  <dimension ref="A1:I1673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59038,6 +59038,41 @@
         <v>117500</v>
       </c>
     </row>
+    <row r="1673">
+      <c r="A1673" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1673" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1673"/>
+  <dimension ref="A1:I1674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59073,6 +59073,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1674">
+      <c r="A1674" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1674" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>114100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1674"/>
+  <dimension ref="A1:I1675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59108,6 +59108,41 @@
         <v>114100</v>
       </c>
     </row>
+    <row r="1675">
+      <c r="A1675" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1675" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1675"/>
+  <dimension ref="A1:I1676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59143,6 +59143,41 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="1676">
+      <c r="A1676" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1676" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1676"/>
+  <dimension ref="A1:I1677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59178,6 +59178,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1677">
+      <c r="A1677" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1677" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>54000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1677"/>
+  <dimension ref="A1:I1678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59213,6 +59213,41 @@
         <v>54000</v>
       </c>
     </row>
+    <row r="1678">
+      <c r="A1678" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1678" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>45500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1678"/>
+  <dimension ref="A1:I1679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59248,6 +59248,41 @@
         <v>45500</v>
       </c>
     </row>
+    <row r="1679">
+      <c r="A1679" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1679" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>288300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1679"/>
+  <dimension ref="A1:I1681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59283,6 +59283,76 @@
         <v>288300</v>
       </c>
     </row>
+    <row r="1680">
+      <c r="A1680" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1680" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>3412800</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>5054</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>TRC</t>
+        </is>
+      </c>
+      <c r="E1681" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>967500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1681"/>
+  <dimension ref="A1:I1682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59353,6 +59353,41 @@
         <v>967500</v>
       </c>
     </row>
+    <row r="1682">
+      <c r="A1682" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1682" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>634700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1682"/>
+  <dimension ref="A1:I1685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59388,6 +59388,111 @@
         <v>634700</v>
       </c>
     </row>
+    <row r="1683">
+      <c r="A1683" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1683" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>664700</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1684" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1685" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>449000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1685"/>
+  <dimension ref="A1:I1686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59493,6 +59493,41 @@
         <v>449000</v>
       </c>
     </row>
+    <row r="1686">
+      <c r="A1686" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1686" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>139100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1686"/>
+  <dimension ref="A1:I1687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59528,6 +59528,41 @@
         <v>139100</v>
       </c>
     </row>
+    <row r="1687">
+      <c r="A1687" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1687" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>29000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5232.xlsx
+++ b/data/5232.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1687"/>
+  <dimension ref="A1:I1690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59563,6 +59563,111 @@
         <v>29000</v>
       </c>
     </row>
+    <row r="1688">
+      <c r="A1688" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1688" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1689" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>5232</t>
+        </is>
+      </c>
+      <c r="D1690" t="inlineStr">
+        <is>
+          <t>LEONFB</t>
+        </is>
+      </c>
+      <c r="E1690" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>115900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
